--- a/src/test/resources/testData/PDE-tests.xlsx
+++ b/src/test/resources/testData/PDE-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachowdhury\Documents\Software\mtf-automation-testing-api\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AB1B3-3E98-49A8-A1E6-94C07CF20725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9938D-34DF-442F-9B30-D836165AC3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,13 @@
     <t xml:space="preserve"> select claim_id, prs_id from claims;</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve"> getFromFile("claim_id", "prs_id")</t>
+  </si>
+  <si>
+    <t>GET_CLAIM_ID_BY_NCPDP</t>
+  </si>
+  <si>
+    <t>[
 	{ 
 		"claim_id": "DET0000001",
 		"prs_id": "TB773C7I3WR"
@@ -76,13 +82,7 @@
 		"claim_id": "DET0000002",
 		"prs_id": "TB773C7I3WR"
 	}
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> getFromFile("claim_id", "prs_id")</t>
-  </si>
-  <si>
-    <t>GET_CLAIM_ID_BY_NCPDP</t>
+]</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
